--- a/working/Perturb/log/tables/table8.xlsx
+++ b/working/Perturb/log/tables/table8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab_codes\FEM\FiniteElemntMethod\working\Perturb\log\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6673B4F1-1C4E-4216-BE25-01E48E4C5667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A119CA5-32AE-4918-945B-B77B44CF862F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1152" windowWidth="16440" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2976" yWindow="1848" windowWidth="16440" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
   <si>
     <t>L2</t>
   </si>
@@ -157,6 +157,9 @@
       <t>}</t>
     </r>
   </si>
+  <si>
+    <t>dof#</t>
+  </si>
 </sst>
 </file>
 
@@ -242,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -288,6 +291,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW28"/>
+  <dimension ref="A1:AW40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1830,7 +1836,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
+      <c r="A23" s="4">
         <v>1</v>
       </c>
       <c r="B23" s="12">
@@ -2002,6 +2008,260 @@
       <c r="I28" s="13">
         <v>10</v>
       </c>
+    </row>
+    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>1</v>
+      </c>
+      <c r="B33" s="12">
+        <v>1</v>
+      </c>
+      <c r="C33" s="12">
+        <v>6</v>
+      </c>
+      <c r="D33" s="12">
+        <v>12</v>
+      </c>
+      <c r="E33" s="12">
+        <v>24</v>
+      </c>
+      <c r="F33" s="12">
+        <v>49</v>
+      </c>
+      <c r="G33" s="12">
+        <v>104</v>
+      </c>
+      <c r="H33" s="12">
+        <v>241</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="12">
+        <v>1</v>
+      </c>
+      <c r="C34" s="12">
+        <v>5</v>
+      </c>
+      <c r="D34" s="12">
+        <v>9</v>
+      </c>
+      <c r="E34" s="12">
+        <v>18</v>
+      </c>
+      <c r="F34" s="12">
+        <v>39</v>
+      </c>
+      <c r="G34" s="12">
+        <v>84</v>
+      </c>
+      <c r="H34" s="12">
+        <v>183</v>
+      </c>
+      <c r="I34" s="12">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="12">
+        <v>1</v>
+      </c>
+      <c r="C35" s="12">
+        <v>3</v>
+      </c>
+      <c r="D35" s="12">
+        <v>5</v>
+      </c>
+      <c r="E35" s="12">
+        <v>7</v>
+      </c>
+      <c r="F35" s="12">
+        <v>8</v>
+      </c>
+      <c r="G35" s="12">
+        <v>15</v>
+      </c>
+      <c r="H35" s="12">
+        <v>30</v>
+      </c>
+      <c r="I35" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="12">
+        <v>1</v>
+      </c>
+      <c r="C36" s="12">
+        <v>3</v>
+      </c>
+      <c r="D36" s="12">
+        <v>5</v>
+      </c>
+      <c r="E36" s="12">
+        <v>6</v>
+      </c>
+      <c r="F36" s="12">
+        <v>7</v>
+      </c>
+      <c r="G36" s="12">
+        <v>9</v>
+      </c>
+      <c r="H36" s="12">
+        <v>15</v>
+      </c>
+      <c r="I36" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="12">
+        <v>1</v>
+      </c>
+      <c r="C37" s="12">
+        <v>3</v>
+      </c>
+      <c r="D37" s="12">
+        <v>5</v>
+      </c>
+      <c r="E37" s="12">
+        <v>6</v>
+      </c>
+      <c r="F37" s="12">
+        <v>7</v>
+      </c>
+      <c r="G37" s="12">
+        <v>8</v>
+      </c>
+      <c r="H37" s="12">
+        <v>10</v>
+      </c>
+      <c r="I37" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="12">
+        <v>1</v>
+      </c>
+      <c r="C38" s="12">
+        <v>3</v>
+      </c>
+      <c r="D38" s="12">
+        <v>5</v>
+      </c>
+      <c r="E38" s="12">
+        <v>6</v>
+      </c>
+      <c r="F38" s="12">
+        <v>7</v>
+      </c>
+      <c r="G38" s="12">
+        <v>8</v>
+      </c>
+      <c r="H38" s="12">
+        <v>10</v>
+      </c>
+      <c r="I38" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="13">
+        <v>25</v>
+      </c>
+      <c r="C39" s="13">
+        <v>81</v>
+      </c>
+      <c r="D39" s="13">
+        <v>289</v>
+      </c>
+      <c r="E39" s="13">
+        <v>1089</v>
+      </c>
+      <c r="F39" s="13">
+        <v>4225</v>
+      </c>
+      <c r="G39" s="13">
+        <v>16641</v>
+      </c>
+      <c r="H39" s="13">
+        <v>66049</v>
+      </c>
+      <c r="I39" s="13">
+        <v>263169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
